--- a/OBTBS_Automation/test.xlsx
+++ b/OBTBS_Automation/test.xlsx
@@ -22,22 +22,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t xml:space="preserve">ca</t>
+    <t xml:space="preserve">MG</t>
   </si>
   <si>
-    <t xml:space="preserve">name one</t>
+    <t xml:space="preserve">Meghalaya</t>
   </si>
   <si>
-    <t xml:space="preserve">cb</t>
+    <t xml:space="preserve">BR</t>
   </si>
   <si>
-    <t xml:space="preserve">name two</t>
+    <t xml:space="preserve">West Bengal</t>
   </si>
   <si>
-    <t xml:space="preserve">cc</t>
+    <t xml:space="preserve">UK</t>
   </si>
   <si>
-    <t xml:space="preserve">name three</t>
+    <t xml:space="preserve">Utharakhand</t>
   </si>
 </sst>
 </file>
@@ -141,10 +141,15 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">

--- a/OBTBS_Automation/test.xlsx
+++ b/OBTBS_Automation/test.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="state" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="organization" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">MG</t>
   </si>
@@ -38,6 +39,12 @@
   </si>
   <si>
     <t xml:space="preserve">Utharakhand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KSRTC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kerala Road Transport Corporation</t>
   </si>
 </sst>
 </file>
@@ -140,15 +147,15 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3061224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -184,4 +191,41 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.484693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/OBTBS_Automation/test.xlsx
+++ b/OBTBS_Automation/test.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="state" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="organization" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Place" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">MG</t>
   </si>
@@ -41,10 +42,52 @@
     <t xml:space="preserve">Utharakhand</t>
   </si>
   <si>
-    <t xml:space="preserve">KSRTC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kerala Road Transport Corporation</t>
+    <t xml:space="preserve">KL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kerala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tamil Nadu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karnataka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andra Pradesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kasaragode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KNR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kannur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KKD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kozhikode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MLP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malapuram</t>
   </si>
 </sst>
 </file>
@@ -153,9 +196,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -198,17 +241,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.484693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -217,6 +260,185 @@
       </c>
       <c r="B1" s="0" t="s">
         <v>7</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
